--- a/StructureDefinition-ext-R5-CapabilityStatement.rest.xlsx
+++ b/StructureDefinition-ext-R5-CapabilityStatement.rest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6838" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6838" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -410,15 +410,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The mode of a RESTful capability statement.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-restful-capability-mode-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -568,15 +559,6 @@
 </t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Types of security services used with FHIR.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-restful-security-service-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:security.extension:description</t>
   </si>
   <si>
@@ -683,12 +665,6 @@
     <t>Extension.extension:resource.extension:type.value[x]</t>
   </si>
   <si>
-    <t>One of the resource types defined as part of this version of FHIR.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-resource-types-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:resource.extension:profile</t>
   </si>
   <si>
@@ -723,7 +699,7 @@
     <t>Extension.extension:resource.extension:profile.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureDefinition|0.0.1-snapshot-3|StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureDefinition|StructureDefinition)
 </t>
   </si>
   <si>
@@ -857,12 +833,6 @@
     <t>Extension.extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t>Operations supported by REST at the type or instance level.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-type-restful-interaction-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:resource.extension:interaction.extension:documentation</t>
   </si>
   <si>
@@ -934,12 +904,6 @@
     <t>Extension.extension:resource.extension:versioning.value[x]</t>
   </si>
   <si>
-    <t>How the system supports versioning for a resource.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-versioning-policy-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:resource.extension:readHistory</t>
   </si>
   <si>
@@ -1076,9 +1040,6 @@
     <t>Extension.extension:resource.extension:conditionalRead.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-conditional-read-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:resource.extension:conditionalUpdate</t>
   </si>
   <si>
@@ -1181,9 +1142,6 @@
     <t>Extension.extension:resource.extension:conditionalDelete.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-conditional-delete-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:resource.extension:referencePolicy</t>
   </si>
   <si>
@@ -1213,9 +1171,6 @@
   </si>
   <si>
     <t>Extension.extension:resource.extension:referencePolicy.value[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-reference-handling-policy-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:resource.extension:searchInclude</t>
@@ -1385,7 +1340,7 @@
     <t>Extension.extension:resource.extension:searchParam.extension:definition.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-SearchParameter|0.0.1-snapshot-3|SearchParameter|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-SearchParameter|SearchParameter)
 </t>
   </si>
   <si>
@@ -1420,12 +1375,6 @@
     <t>Extension.extension:resource.extension:searchParam.extension:type.value[x]</t>
   </si>
   <si>
-    <t>Data types allowed to be used for search parameters.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-search-param-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:resource.extension:searchParam.extension:documentation</t>
   </si>
   <si>
@@ -1551,7 +1500,7 @@
     <t>Extension.extension:resource.extension:operation.extension:definition.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-OperationDefinition|0.0.1-snapshot-3|OperationDefinition|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-OperationDefinition|OperationDefinition)
 </t>
   </si>
   <si>
@@ -1645,12 +1594,6 @@
     <t>Extension.extension:interaction.extension:code.value[x]</t>
   </si>
   <si>
-    <t>Operations supported by REST at the system level.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-system-restful-interaction-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:interaction.extension:documentation</t>
   </si>
   <si>
@@ -1775,7 +1718,7 @@
     <t>Extension.extension:compartment.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CompartmentDefinition|0.0.1-snapshot-3|CompartmentDefinition|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CompartmentDefinition|CompartmentDefinition)
 </t>
   </si>
 </sst>
@@ -2126,8 +2069,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.25" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.25390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3045,43 +2988,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -3089,13 +3032,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -3120,14 +3063,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -3196,7 +3139,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -3299,7 +3242,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -3404,7 +3347,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -3447,7 +3390,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3509,7 +3452,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -3535,13 +3478,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3592,7 +3535,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3604,7 +3547,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -3612,13 +3555,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3643,14 +3586,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3719,7 +3662,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -3822,7 +3765,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -3925,13 +3868,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -3956,16 +3899,16 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -4034,10 +3977,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4137,10 +4080,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4242,10 +4185,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4285,7 +4228,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -4347,10 +4290,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4373,16 +4316,16 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4432,7 +4375,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4444,7 +4387,7 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>121</v>
@@ -4452,13 +4395,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -4483,14 +4426,14 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4559,10 +4502,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4662,10 +4605,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4767,10 +4710,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4810,7 +4753,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -4872,10 +4815,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4898,13 +4841,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4931,13 +4874,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4955,7 +4898,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4967,7 +4910,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>121</v>
@@ -4975,13 +4918,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -5006,14 +4949,14 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -5082,10 +5025,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5185,10 +5128,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5290,10 +5233,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5333,7 +5276,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -5395,10 +5338,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5421,13 +5364,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5478,7 +5421,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5490,7 +5433,7 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>121</v>
@@ -5498,7 +5441,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -5541,7 +5484,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5603,7 +5546,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -5629,13 +5572,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5686,7 +5629,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5698,7 +5641,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>121</v>
@@ -5706,13 +5649,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5737,16 +5680,16 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5815,7 +5758,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -5918,7 +5861,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -6021,13 +5964,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -6052,14 +5995,14 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6128,10 +6071,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6231,10 +6174,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6336,10 +6279,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6379,7 +6322,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -6441,10 +6384,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6470,10 +6413,10 @@
         <v>124</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6500,32 +6443,32 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6536,7 +6479,7 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>121</v>
@@ -6544,13 +6487,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6575,16 +6518,16 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6653,10 +6596,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6756,10 +6699,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6861,10 +6804,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6904,7 +6847,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6966,10 +6909,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6992,16 +6935,16 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7051,7 +6994,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7063,7 +7006,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>121</v>
@@ -7071,13 +7014,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -7102,16 +7045,16 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7180,10 +7123,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7283,10 +7226,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7388,10 +7331,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7431,7 +7374,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -7493,10 +7436,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7519,16 +7462,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7578,7 +7521,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7590,7 +7533,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>121</v>
@@ -7598,13 +7541,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -7629,14 +7572,14 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7705,10 +7648,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7808,10 +7751,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7913,10 +7856,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7956,7 +7899,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -8018,10 +7961,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8044,13 +7987,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8101,7 +8044,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8113,7 +8056,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>121</v>
@@ -8121,13 +8064,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -8152,16 +8095,16 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8230,10 +8173,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8333,10 +8276,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8436,13 +8379,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
@@ -8467,14 +8410,14 @@
         <v>94</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8543,10 +8486,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8646,10 +8589,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8751,10 +8694,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8794,7 +8737,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>77</v>
@@ -8856,10 +8799,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8885,10 +8828,10 @@
         <v>124</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8915,32 +8858,32 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
@@ -8951,7 +8894,7 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>121</v>
@@ -8959,13 +8902,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
@@ -8990,14 +8933,14 @@
         <v>94</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9066,10 +9009,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9169,10 +9112,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9274,10 +9217,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9317,7 +9260,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -9379,10 +9322,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9405,13 +9348,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9462,7 +9405,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9474,7 +9417,7 @@
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>121</v>
@@ -9482,10 +9425,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9525,7 +9468,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9587,10 +9530,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9613,13 +9556,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9670,7 +9613,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9682,7 +9625,7 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>121</v>
@@ -9690,13 +9633,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9721,16 +9664,16 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9799,10 +9742,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9902,10 +9845,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10007,10 +9950,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10050,7 +9993,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -10112,10 +10055,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10141,13 +10084,13 @@
         <v>124</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10173,32 +10116,32 @@
         <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF77" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y77" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
@@ -10209,7 +10152,7 @@
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>121</v>
@@ -10217,13 +10160,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -10248,16 +10191,16 @@
         <v>94</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10326,10 +10269,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10429,10 +10372,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10534,10 +10477,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10577,7 +10520,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10639,10 +10582,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10665,16 +10608,16 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10724,7 +10667,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -10736,7 +10679,7 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>121</v>
@@ -10744,13 +10687,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10775,16 +10718,16 @@
         <v>94</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10853,10 +10796,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10956,10 +10899,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11061,10 +11004,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11104,7 +11047,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -11166,10 +11109,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11192,16 +11135,16 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11251,7 +11194,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11263,7 +11206,7 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>121</v>
@@ -11271,13 +11214,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -11302,16 +11245,16 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11380,10 +11323,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11483,10 +11426,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11588,10 +11531,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11631,7 +11574,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11693,10 +11636,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11719,16 +11662,16 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11778,7 +11721,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11790,7 +11733,7 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>121</v>
@@ -11798,13 +11741,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11829,16 +11772,16 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11907,10 +11850,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12010,10 +11953,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12115,10 +12058,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12158,7 +12101,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -12220,10 +12163,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12249,13 +12192,13 @@
         <v>124</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -12281,32 +12224,32 @@
         <v>77</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y97" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
@@ -12317,7 +12260,7 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>121</v>
@@ -12325,13 +12268,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -12356,16 +12299,16 @@
         <v>94</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -12434,10 +12377,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12537,10 +12480,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12642,10 +12585,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12685,7 +12628,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12747,10 +12690,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12773,16 +12716,16 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -12832,7 +12775,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -12844,7 +12787,7 @@
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>121</v>
@@ -12852,13 +12795,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12883,16 +12826,16 @@
         <v>94</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12961,10 +12904,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13064,10 +13007,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13169,10 +13112,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13212,7 +13155,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -13274,10 +13217,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13300,16 +13243,16 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -13359,7 +13302,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -13371,7 +13314,7 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>121</v>
@@ -13379,13 +13322,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13410,16 +13353,16 @@
         <v>94</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13488,10 +13431,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13591,10 +13534,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13696,10 +13639,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13739,7 +13682,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13801,10 +13744,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13830,13 +13773,13 @@
         <v>124</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -13862,32 +13805,32 @@
         <v>77</v>
       </c>
       <c r="X112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF112" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y112" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
       </c>
@@ -13898,7 +13841,7 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>121</v>
@@ -13906,13 +13849,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13937,14 +13880,14 @@
         <v>94</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -14013,10 +13956,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14116,10 +14059,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14221,10 +14164,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14264,7 +14207,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -14326,10 +14269,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14355,10 +14298,10 @@
         <v>124</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14385,32 +14328,32 @@
         <v>77</v>
       </c>
       <c r="X117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF117" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y117" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
       </c>
@@ -14421,7 +14364,7 @@
         <v>77</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>121</v>
@@ -14429,13 +14372,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14460,16 +14403,16 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14538,10 +14481,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14641,10 +14584,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14746,10 +14689,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14789,7 +14732,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14851,10 +14794,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14880,13 +14823,13 @@
         <v>88</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -14936,7 +14879,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -14948,7 +14891,7 @@
         <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>121</v>
@@ -14956,13 +14899,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14987,16 +14930,16 @@
         <v>94</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -15065,10 +15008,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15168,10 +15111,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15273,10 +15216,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15316,7 +15259,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15378,10 +15321,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15407,13 +15350,13 @@
         <v>88</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -15463,7 +15406,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -15475,7 +15418,7 @@
         <v>77</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>121</v>
@@ -15483,13 +15426,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15514,16 +15457,16 @@
         <v>94</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15592,10 +15535,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15695,10 +15638,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15706,7 +15649,7 @@
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>79</v>
@@ -15798,13 +15741,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -15829,16 +15772,16 @@
         <v>94</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>77</v>
@@ -15907,10 +15850,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16010,10 +15953,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16115,10 +16058,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16158,7 +16101,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -16220,10 +16163,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16249,13 +16192,13 @@
         <v>88</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -16305,7 +16248,7 @@
         <v>77</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>78</v>
@@ -16317,7 +16260,7 @@
         <v>77</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>121</v>
@@ -16325,13 +16268,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -16356,16 +16299,16 @@
         <v>94</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16434,10 +16377,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16537,10 +16480,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16642,10 +16585,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16685,7 +16628,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16747,10 +16690,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16773,16 +16716,16 @@
         <v>77</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -16832,7 +16775,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>78</v>
@@ -16844,7 +16787,7 @@
         <v>77</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>121</v>
@@ -16852,13 +16795,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -16883,16 +16826,16 @@
         <v>94</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -16961,10 +16904,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17064,10 +17007,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17169,10 +17112,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17212,7 +17155,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -17274,10 +17217,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17303,13 +17246,13 @@
         <v>124</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -17335,32 +17278,32 @@
         <v>77</v>
       </c>
       <c r="X145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF145" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y145" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG145" t="s" s="2">
         <v>78</v>
       </c>
@@ -17371,7 +17314,7 @@
         <v>77</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>121</v>
@@ -17379,13 +17322,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>77</v>
@@ -17410,14 +17353,14 @@
         <v>94</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -17486,10 +17429,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17589,10 +17532,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17694,10 +17637,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17737,7 +17680,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>77</v>
@@ -17799,10 +17742,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17825,13 +17768,13 @@
         <v>77</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -17882,7 +17825,7 @@
         <v>77</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
@@ -17894,7 +17837,7 @@
         <v>77</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>121</v>
@@ -17902,10 +17845,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17945,7 +17888,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -18007,10 +17950,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18033,13 +17976,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -18090,7 +18033,7 @@
         <v>77</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -18102,7 +18045,7 @@
         <v>77</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>121</v>
@@ -18110,13 +18053,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -18141,16 +18084,16 @@
         <v>94</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -18219,10 +18162,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18322,10 +18265,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18333,7 +18276,7 @@
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>79</v>
@@ -18425,13 +18368,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>77</v>
@@ -18456,16 +18399,16 @@
         <v>94</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>77</v>
@@ -18534,10 +18477,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18637,10 +18580,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18742,10 +18685,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18785,7 +18728,7 @@
       </c>
       <c r="Q159" s="2"/>
       <c r="R159" t="s" s="2">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>77</v>
@@ -18847,10 +18790,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18876,13 +18819,13 @@
         <v>88</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -18932,7 +18875,7 @@
         <v>77</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>78</v>
@@ -18944,7 +18887,7 @@
         <v>77</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>121</v>
@@ -18952,13 +18895,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>77</v>
@@ -18983,16 +18926,16 @@
         <v>94</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>77</v>
@@ -19061,10 +19004,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19164,10 +19107,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -19269,10 +19212,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19312,7 +19255,7 @@
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" t="s" s="2">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="S164" t="s" s="2">
         <v>77</v>
@@ -19374,10 +19317,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19400,16 +19343,16 @@
         <v>77</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
@@ -19459,7 +19402,7 @@
         <v>77</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>78</v>
@@ -19471,7 +19414,7 @@
         <v>77</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>121</v>
@@ -19479,13 +19422,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>77</v>
@@ -19510,14 +19453,14 @@
         <v>94</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>77</v>
@@ -19586,10 +19529,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19689,10 +19632,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -19794,10 +19737,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19837,7 +19780,7 @@
       </c>
       <c r="Q169" s="2"/>
       <c r="R169" t="s" s="2">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="S169" t="s" s="2">
         <v>77</v>
@@ -19899,10 +19842,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -19925,13 +19868,13 @@
         <v>77</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -19982,7 +19925,7 @@
         <v>77</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>78</v>
@@ -19994,7 +19937,7 @@
         <v>77</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>121</v>
@@ -20002,10 +19945,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20045,7 +19988,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>77</v>
@@ -20107,10 +20050,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20133,13 +20076,13 @@
         <v>77</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -20190,7 +20133,7 @@
         <v>77</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>78</v>
@@ -20202,7 +20145,7 @@
         <v>77</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>121</v>
@@ -20210,7 +20153,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>114</v>
@@ -20253,7 +20196,7 @@
       </c>
       <c r="Q173" s="2"/>
       <c r="R173" t="s" s="2">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="S173" t="s" s="2">
         <v>77</v>
@@ -20315,7 +20258,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>123</v>
@@ -20341,13 +20284,13 @@
         <v>77</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -20398,7 +20341,7 @@
         <v>77</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>78</v>
@@ -20410,7 +20353,7 @@
         <v>77</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>121</v>
@@ -20418,13 +20361,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D175" t="s" s="2">
         <v>77</v>
@@ -20449,14 +20392,14 @@
         <v>94</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>77</v>
@@ -20525,7 +20468,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>106</v>
@@ -20628,7 +20571,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>108</v>
@@ -20731,13 +20674,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>77</v>
@@ -20762,14 +20705,14 @@
         <v>94</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -20838,10 +20781,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20941,10 +20884,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21046,10 +20989,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -21089,7 +21032,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -21151,10 +21094,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21180,10 +21123,10 @@
         <v>124</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -21210,32 +21153,32 @@
         <v>77</v>
       </c>
       <c r="X182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF182" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y182" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="Z182" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AA182" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB182" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC182" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD182" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE182" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF182" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG182" t="s" s="2">
         <v>78</v>
       </c>
@@ -21246,7 +21189,7 @@
         <v>77</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK182" t="s" s="2">
         <v>121</v>
@@ -21254,13 +21197,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -21285,14 +21228,14 @@
         <v>94</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21361,10 +21304,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21464,10 +21407,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21569,10 +21512,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21612,7 +21555,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21674,10 +21617,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21700,13 +21643,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -21757,7 +21700,7 @@
         <v>77</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>78</v>
@@ -21769,7 +21712,7 @@
         <v>77</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK187" t="s" s="2">
         <v>121</v>
@@ -21777,7 +21720,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>114</v>
@@ -21820,7 +21763,7 @@
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" t="s" s="2">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>77</v>
@@ -21882,7 +21825,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>123</v>
@@ -21908,13 +21851,13 @@
         <v>77</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -21965,7 +21908,7 @@
         <v>77</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>78</v>
@@ -21977,7 +21920,7 @@
         <v>77</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK189" t="s" s="2">
         <v>121</v>
@@ -21985,13 +21928,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="D190" t="s" s="2">
         <v>77</v>
@@ -22016,16 +21959,16 @@
         <v>94</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="O190" t="s" s="2">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>77</v>
@@ -22094,7 +22037,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>106</v>
@@ -22197,7 +22140,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>108</v>
@@ -22302,7 +22245,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>114</v>
@@ -22345,7 +22288,7 @@
       </c>
       <c r="Q193" s="2"/>
       <c r="R193" t="s" s="2">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="S193" t="s" s="2">
         <v>77</v>
@@ -22407,7 +22350,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>123</v>
@@ -22433,13 +22376,13 @@
         <v>77</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
@@ -22490,7 +22433,7 @@
         <v>77</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>78</v>
@@ -22502,7 +22445,7 @@
         <v>77</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK194" t="s" s="2">
         <v>121</v>
@@ -22510,13 +22453,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="D195" t="s" s="2">
         <v>77</v>
@@ -22541,16 +22484,16 @@
         <v>94</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>77</v>
@@ -22619,7 +22562,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>106</v>
@@ -22722,7 +22665,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>108</v>
@@ -22827,7 +22770,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>114</v>
@@ -22870,7 +22813,7 @@
       </c>
       <c r="Q198" s="2"/>
       <c r="R198" t="s" s="2">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="S198" t="s" s="2">
         <v>77</v>
@@ -22932,7 +22875,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>123</v>
@@ -22958,13 +22901,13 @@
         <v>77</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -23015,7 +22958,7 @@
         <v>77</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>78</v>
@@ -23027,7 +22970,7 @@
         <v>77</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>121</v>
@@ -23035,13 +22978,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="D200" t="s" s="2">
         <v>77</v>
@@ -23066,16 +23009,16 @@
         <v>94</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>77</v>
@@ -23144,7 +23087,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>106</v>
@@ -23247,7 +23190,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>108</v>
@@ -23352,7 +23295,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>114</v>
@@ -23395,7 +23338,7 @@
       </c>
       <c r="Q203" s="2"/>
       <c r="R203" t="s" s="2">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="S203" t="s" s="2">
         <v>77</v>
@@ -23457,7 +23400,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>123</v>
@@ -23483,16 +23426,16 @@
         <v>77</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
@@ -23542,7 +23485,7 @@
         <v>77</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>78</v>
@@ -23554,7 +23497,7 @@
         <v>77</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK204" t="s" s="2">
         <v>121</v>
@@ -23667,10 +23610,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -23693,13 +23636,13 @@
         <v>77</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -23750,7 +23693,7 @@
         <v>77</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>78</v>
@@ -23762,7 +23705,7 @@
         <v>77</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>121</v>
